--- a/data/trans_camb/P18_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P18_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-20,76</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,89</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,42</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-31,34</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-28,76</t>
+          <t>27,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-31,51</t>
+          <t>27,11</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-27,22</t>
+          <t>30,63</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-21,07</t>
+          <t>39,12</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-24,86</t>
+          <t>15,44</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,04</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,35</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22,98</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-37,29; -3,55</t>
+          <t>-28,18; 24,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,97; 7,87</t>
+          <t>-28,36; 23,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 5,0</t>
+          <t>-19,79; 27,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-45,8; -15,16</t>
+          <t>-24,74; 24,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,64; -13,33</t>
+          <t>6,81; 45,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,89; -14,88</t>
+          <t>10,16; 47,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,18; -15,27</t>
+          <t>10,63; 49,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,72; -9,34</t>
+          <t>19,29; 57,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-36,0; -12,96</t>
+          <t>0,74; 30,14</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 30,87</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,55; 37,88</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 38,27</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-46,57%</t>
+          <t>-1,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-22,18%</t>
+          <t>-3,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-30,11%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-39,99%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-36,69%</t>
+          <t>137,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-40,21%</t>
+          <t>136,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-43,13%</t>
+          <t>154,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-33,38%</t>
+          <t>197,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-39,4%</t>
+          <t>43,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,78%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>57,88%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>65,37%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-70,69; -8,05</t>
+          <t>-42,41; 57,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,87; 21,54</t>
+          <t>-41,94; 59,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,35; 12,99</t>
+          <t>-29,57; 67,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,71; -21,07</t>
+          <t>-36,61; 57,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,67; -18,69</t>
+          <t>19,25; 419,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,61; -22,22</t>
+          <t>25,16; 453,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,59; -26,27</t>
+          <t>30,75; 456,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,13; -16,23</t>
+          <t>58,65; 568,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-53,94; -22,8</t>
+          <t>-1,3; 116,63</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 118,71</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10,55; 139,85</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14,88; 146,22</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-18,9</t>
+          <t>21,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-27,93</t>
+          <t>-20,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-28,83</t>
+          <t>38,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-29,92</t>
+          <t>30,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-23,24</t>
+          <t>36,23</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,04</t>
+          <t>23,9</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-16,9</t>
+          <t>30,12</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19,75</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18,3</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-36,46; -3,15</t>
+          <t>1,83; 49,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 13,04</t>
+          <t>-15,21; 39,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 20,04</t>
+          <t>-30,74; 30,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-42,18; -13,58</t>
+          <t>-53,91; 14,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,47; -13,32</t>
+          <t>20,58; 54,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,86; -16,73</t>
+          <t>12,42; 46,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,92; -11,83</t>
+          <t>18,69; 52,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,35; -5,35</t>
+          <t>5,26; 38,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-30,59; -3,95</t>
+          <t>12,65; 46,43</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 35,78</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 35,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-20,47; 19,12</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-59,57%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,13%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-40,88%</t>
+          <t>-31,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-42,19%</t>
+          <t>166,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-43,79%</t>
+          <t>129,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-46,01%</t>
+          <t>155,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-33,73%</t>
+          <t>102,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-33,46%</t>
+          <t>67,72%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>44,4%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>41,13%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,99; -10,42</t>
+          <t>1,62; 117,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,36; 60,14</t>
+          <t>-19,09; 90,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,45; 99,31</t>
+          <t>-40,71; 62,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,74; -21,96</t>
+          <t>-71,36; 24,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,84; -22,97</t>
+          <t>60,69; 344,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,31; -25,37</t>
+          <t>34,78; 297,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,15; -24,56</t>
+          <t>55,77; 332,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,24; -12,06</t>
+          <t>16,72; 238,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,26; -8,82</t>
+          <t>21,31; 133,42</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 105,08</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; 104,56</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-37,98; 51,95</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-13,62</t>
+          <t>15,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,95</t>
+          <t>16,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,21</t>
+          <t>13,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-18,89</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-12,64</t>
+          <t>15,93</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,64</t>
+          <t>12,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-16,66</t>
+          <t>11,11</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-10,61</t>
+          <t>21,74</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-11,99</t>
+          <t>15,41</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,7</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12,44</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 6,89</t>
+          <t>-2,36; 31,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 8,12</t>
+          <t>-1,16; 32,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 5,84</t>
+          <t>-4,47; 30,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,29; -5,95</t>
+          <t>-9,07; 25,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,73; -1,57</t>
+          <t>1,69; 29,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,51; -1,27</t>
+          <t>-1,08; 26,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,01; -6,75</t>
+          <t>-4,73; 23,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,77; -1,4</t>
+          <t>7,55; 35,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-22,17; -2,24</t>
+          <t>3,81; 24,97</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 24,07</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 22,82</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 27,78</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-32,32%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-18,85%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-21,84%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-30,7%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-20,55%</t>
+          <t>41,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,16%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-31,68%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-20,17%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,8%</t>
+          <t>33,67%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29,93%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27,19%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36,4%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,18; 21,97</t>
+          <t>-3,77; 65,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,75; 25,07</t>
+          <t>-2,41; 70,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,99; 16,68</t>
+          <t>-6,39; 65,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,52; -11,58</t>
+          <t>-14,41; 54,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,76; -2,85</t>
+          <t>3,57; 98,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,86; -2,21</t>
+          <t>-3,0; 79,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,34; -14,11</t>
+          <t>-9,2; 73,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,54; -3,09</t>
+          <t>16,73; 113,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -5,43</t>
+          <t>7,24; 62,38</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5,02; 58,76</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 56,18</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 68,18</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-10,91</t>
+          <t>15,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-20,68</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-12,31</t>
+          <t>18,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,05</t>
+          <t>11,51</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-16,2</t>
+          <t>12,32</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,06</t>
+          <t>16,99</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8,87</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9,96</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 0,58</t>
+          <t>0,52; 28,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 12,45</t>
+          <t>-10,44; 19,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 8,76</t>
+          <t>-10,17; 20,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-30,77; -10,23</t>
+          <t>-13,48; 17,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,64; -2,44</t>
+          <t>3,98; 33,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,79; -0,78</t>
+          <t>-3,03; 25,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-23,57; -7,7</t>
+          <t>-2,0; 26,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 1,56</t>
+          <t>-2,68; 24,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 0,31</t>
+          <t>6,53; 26,96</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 19,08</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 19,99</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 17,75</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-31,65%</t>
+          <t>25,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,0%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,45%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-32,46%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-19,34%</t>
+          <t>48,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,93%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-32,06%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-13,46%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-15,95%</t>
+          <t>34,84%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16,13%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 3,11</t>
+          <t>0,98; 53,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 42,03</t>
+          <t>-15,17; 36,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 29,0</t>
+          <t>-14,04; 38,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,46; -17,44</t>
+          <t>-19,86; 31,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,83; -4,07</t>
+          <t>8,56; 106,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,3; -2,11</t>
+          <t>-6,34; 80,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,5; -15,27</t>
+          <t>-3,8; 89,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 3,51</t>
+          <t>-4,27; 82,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 0,67</t>
+          <t>12,25; 63,14</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 44,56</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 45,85</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 38,94</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-9,99</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-6,27</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-12,88</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-11,53</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>4,96</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,83</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-4,31</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 2,09</t>
+          <t>-9,54; 22,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 6,91</t>
+          <t>-8,93; 24,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 11,11</t>
+          <t>-21,26; 13,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 1,01</t>
+          <t>-16,2; 19,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 8,79</t>
+          <t>-18,86; 20,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 13,91</t>
+          <t>-25,46; 14,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-20,36; -1,92</t>
+          <t>-25,96; 13,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 3,67</t>
+          <t>-22,73; 19,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 9,89</t>
+          <t>-9,01; 17,66</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-11,94; 15,33</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-18,6; 8,66</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-14,35; 12,53</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-26,36%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-16,54%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>-4,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-22,23%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-8,7%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>-11,12%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-24,2%</t>
+          <t>-12,22%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-12,3%</t>
+          <t>-6,08%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-1,63%</t>
+          <t>8,82%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-7,67%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-0,92%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,77; 8,13</t>
+          <t>-13,22; 42,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,24; 22,11</t>
+          <t>-12,94; 47,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 33,06</t>
+          <t>-30,35; 25,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,32; 2,08</t>
+          <t>-23,21; 37,46</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-29,44; 17,84</t>
+          <t>-33,26; 54,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,78; 28,38</t>
+          <t>-43,96; 40,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-39,25; -4,5</t>
+          <t>-44,57; 37,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 9,26</t>
+          <t>-39,37; 52,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 23,33</t>
+          <t>-14,49; 35,18</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-18,72; 32,0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-28,84; 18,39</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-22,18; 25,38</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-13,59</t>
+          <t>17,67</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-10,05</t>
+          <t>20,62</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>12,9</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,45</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-8,1</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>11,01</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>11,65</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>7,39</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>9,89</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-26,83; -0,74</t>
+          <t>-0,46; 36,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 9,68</t>
+          <t>-8,65; 29,96</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 3,36</t>
+          <t>3,04; 37,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 11,79</t>
+          <t>-7,97; 32,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 16,78</t>
+          <t>-16,57; 26,71</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 14,39</t>
+          <t>-10,38; 31,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 2,93</t>
+          <t>-22,56; 17,68</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 12,13</t>
+          <t>-10,83; 34,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 6,91</t>
+          <t>-3,82; 26,21</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 26,61</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-8,97; 23,27</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 24,11</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-46,07%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-12,48%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-34,08%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-6,41%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-3,95%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-17,83%</t>
+          <t>-8,46%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-4,58%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-10,77%</t>
+          <t>21,35%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>22,59%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>14,33%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>19,19%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-73,61; -1,66</t>
+          <t>-0,54; 67,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-51,34; 47,95</t>
+          <t>-10,26; 53,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,58; 15,39</t>
+          <t>4,88; 69,22</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 23,5</t>
+          <t>-9,08; 56,59</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 33,35</t>
+          <t>-34,57; 103,53</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-48,85; 26,21</t>
+          <t>-22,61; 112,5</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 8,42</t>
+          <t>-49,33; 65,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 29,17</t>
+          <t>-23,96; 123,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 16,86</t>
+          <t>-6,11; 61,36</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-8,29; 61,27</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-14,57; 50,62</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-10,57; 57,04</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-14,1</t>
+          <t>13,65</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-19,26</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-14,54</t>
+          <t>18,49</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-14,55</t>
+          <t>14,62</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-16,97</t>
+          <t>13,98</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>16,19</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>11,83</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>10,81</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>9,52</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,2; -8,35</t>
+          <t>5,8; 21,74</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 1,03</t>
+          <t>0,2; 16,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 0,22</t>
+          <t>-3,45; 14,88</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-24,41; -13,56</t>
+          <t>-13,47; 8,44</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-20,02; -9,18</t>
+          <t>11,59; 24,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-20,83; -9,27</t>
+          <t>7,5; 21,8</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-21,06; -12,82</t>
+          <t>6,73; 20,97</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-14,58; -5,89</t>
+          <t>10,4; 24,85</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -6,92</t>
+          <t>10,35; 21,66</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 17,82</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 16,35</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 15,24</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-38,34%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-13,37%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-16,91%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-29,98%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-22,64%</t>
+          <t>53,55%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-22,66%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-33,0%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-19,91%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-21,58%</t>
+          <t>34,36%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>22,94%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>20,2%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,84; -22,64</t>
+          <t>8,81; 39,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 3,66</t>
+          <t>0,46; 28,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 0,66</t>
+          <t>-5,23; 25,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-36,76; -21,79</t>
+          <t>-20,53; 14,5</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-30,08; -14,62</t>
+          <t>29,5; 78,41</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-31,8; -15,5</t>
+          <t>19,74; 70,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-40,06; -26,26</t>
+          <t>17,38; 67,17</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-27,41; -12,19</t>
+          <t>27,88; 80,4</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-29,67; -13,96</t>
+          <t>20,5; 48,72</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 40,29</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>10,07; 37,42</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 34,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
